--- a/workflow-cgi/workflow-Genotype/0-scanner-labid/3000142919.xlsx
+++ b/workflow-cgi/workflow-Genotype/0-scanner-labid/3000142919.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokall/Documents/SeqDB-documentation/workflow-cgi/workflow-Genotype/0-scanner-labid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="10700" yWindow="5980" windowWidth="24920" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +21,14 @@
     <definedName name="NRM_CGI_3000142919_20200124" localSheetId="0">Sheet1!$H$81:$K$177</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Position</t>
   </si>
@@ -344,292 +357,295 @@
     <t>H12</t>
   </si>
   <si>
-    <t>s1578</t>
-  </si>
-  <si>
-    <t>s1580</t>
-  </si>
-  <si>
-    <t>s1581</t>
-  </si>
-  <si>
-    <t>s1582</t>
-  </si>
-  <si>
-    <t>s1583</t>
-  </si>
-  <si>
-    <t>s1584</t>
-  </si>
-  <si>
-    <t>s1585</t>
-  </si>
-  <si>
-    <t>s1587</t>
-  </si>
-  <si>
-    <t>s1588</t>
-  </si>
-  <si>
-    <t>s1589</t>
-  </si>
-  <si>
-    <t>s1591</t>
-  </si>
-  <si>
-    <t>s1595</t>
-  </si>
-  <si>
-    <t>s1596</t>
-  </si>
-  <si>
-    <t>s1598</t>
-  </si>
-  <si>
-    <t>s1599</t>
-  </si>
-  <si>
-    <t>s1601</t>
-  </si>
-  <si>
-    <t>s1607</t>
-  </si>
-  <si>
-    <t>s1608</t>
-  </si>
-  <si>
-    <t>s1611</t>
-  </si>
-  <si>
-    <t>s1612</t>
-  </si>
-  <si>
-    <t>s1614</t>
-  </si>
-  <si>
-    <t>s1619</t>
-  </si>
-  <si>
-    <t>s1620</t>
-  </si>
-  <si>
-    <t>s1621</t>
-  </si>
-  <si>
-    <t>s1624</t>
-  </si>
-  <si>
-    <t>s1626</t>
-  </si>
-  <si>
-    <t>s1628</t>
-  </si>
-  <si>
-    <t>s1629</t>
-  </si>
-  <si>
-    <t>s1632</t>
-  </si>
-  <si>
-    <t>s1633</t>
-  </si>
-  <si>
-    <t>s1634</t>
-  </si>
-  <si>
-    <t>s1635</t>
-  </si>
-  <si>
-    <t>s1637</t>
-  </si>
-  <si>
-    <t>s1639</t>
-  </si>
-  <si>
-    <t>s1641</t>
-  </si>
-  <si>
-    <t>s1642</t>
-  </si>
-  <si>
-    <t>s1644</t>
-  </si>
-  <si>
-    <t>s1648</t>
-  </si>
-  <si>
-    <t>s1651</t>
-  </si>
-  <si>
-    <t>s1652</t>
-  </si>
-  <si>
-    <t>s1653</t>
-  </si>
-  <si>
-    <t>s1654</t>
-  </si>
-  <si>
-    <t>s1656</t>
-  </si>
-  <si>
-    <t>s1658</t>
-  </si>
-  <si>
-    <t>s1659</t>
-  </si>
-  <si>
-    <t>s1661</t>
-  </si>
-  <si>
-    <t>s1663</t>
-  </si>
-  <si>
-    <t>s1664</t>
-  </si>
-  <si>
-    <t>s1665</t>
-  </si>
-  <si>
-    <t>s1666</t>
-  </si>
-  <si>
-    <t>s1667</t>
-  </si>
-  <si>
-    <t>s1668</t>
-  </si>
-  <si>
-    <t>s1671</t>
-  </si>
-  <si>
-    <t>s1673</t>
-  </si>
-  <si>
-    <t>s1674</t>
-  </si>
-  <si>
-    <t>s1675</t>
-  </si>
-  <si>
-    <t>s1676</t>
-  </si>
-  <si>
-    <t>s1679</t>
-  </si>
-  <si>
-    <t>s1680</t>
-  </si>
-  <si>
-    <t>s1682</t>
-  </si>
-  <si>
-    <t>s1683</t>
-  </si>
-  <si>
-    <t>s1684</t>
-  </si>
-  <si>
-    <t>s1687</t>
-  </si>
-  <si>
-    <t>s1688</t>
-  </si>
-  <si>
-    <t>s1689</t>
-  </si>
-  <si>
-    <t>s1690</t>
-  </si>
-  <si>
-    <t>s1695</t>
-  </si>
-  <si>
-    <t>s1696</t>
-  </si>
-  <si>
-    <t>s1699</t>
-  </si>
-  <si>
-    <t>s1700</t>
-  </si>
-  <si>
-    <t>s1701</t>
-  </si>
-  <si>
-    <t>s1702</t>
-  </si>
-  <si>
-    <t>s1704</t>
-  </si>
-  <si>
-    <t>s1706</t>
-  </si>
-  <si>
-    <t>s1707</t>
-  </si>
-  <si>
-    <t>s1708</t>
-  </si>
-  <si>
-    <t>s1709</t>
-  </si>
-  <si>
-    <t>s1710</t>
-  </si>
-  <si>
-    <t>s1712</t>
-  </si>
-  <si>
-    <t>s1717</t>
-  </si>
-  <si>
-    <t>s1718</t>
-  </si>
-  <si>
-    <t>s1719</t>
-  </si>
-  <si>
-    <t>s1721</t>
-  </si>
-  <si>
-    <t>s1723</t>
-  </si>
-  <si>
-    <t>s1724</t>
-  </si>
-  <si>
-    <t>s1725</t>
-  </si>
-  <si>
-    <t>s1727</t>
-  </si>
-  <si>
-    <t>s1728</t>
-  </si>
-  <si>
-    <t>s1729</t>
-  </si>
-  <si>
-    <t>s1730</t>
-  </si>
-  <si>
-    <t>s1731</t>
-  </si>
-  <si>
-    <t>s1732</t>
-  </si>
-  <si>
-    <t>s1734</t>
-  </si>
-  <si>
-    <t>s1736</t>
-  </si>
-  <si>
-    <t>s1738</t>
-  </si>
-  <si>
-    <t>s1740</t>
+    <t>Lab ID</t>
+  </si>
+  <si>
+    <t>S1578</t>
+  </si>
+  <si>
+    <t>S1580</t>
+  </si>
+  <si>
+    <t>S1581</t>
+  </si>
+  <si>
+    <t>S1582</t>
+  </si>
+  <si>
+    <t>S1583</t>
+  </si>
+  <si>
+    <t>S1584</t>
+  </si>
+  <si>
+    <t>S1585</t>
+  </si>
+  <si>
+    <t>S1587</t>
+  </si>
+  <si>
+    <t>S1588</t>
+  </si>
+  <si>
+    <t>S1589</t>
+  </si>
+  <si>
+    <t>S1591</t>
+  </si>
+  <si>
+    <t>S1595</t>
+  </si>
+  <si>
+    <t>S1596</t>
+  </si>
+  <si>
+    <t>S1598</t>
+  </si>
+  <si>
+    <t>S1599</t>
+  </si>
+  <si>
+    <t>S1601</t>
+  </si>
+  <si>
+    <t>S1607</t>
+  </si>
+  <si>
+    <t>S1608</t>
+  </si>
+  <si>
+    <t>S1611</t>
+  </si>
+  <si>
+    <t>S1612</t>
+  </si>
+  <si>
+    <t>S1614</t>
+  </si>
+  <si>
+    <t>S1619</t>
+  </si>
+  <si>
+    <t>S1620</t>
+  </si>
+  <si>
+    <t>S1621</t>
+  </si>
+  <si>
+    <t>S1624</t>
+  </si>
+  <si>
+    <t>S1626</t>
+  </si>
+  <si>
+    <t>S1628</t>
+  </si>
+  <si>
+    <t>S1629</t>
+  </si>
+  <si>
+    <t>S1632</t>
+  </si>
+  <si>
+    <t>S1633</t>
+  </si>
+  <si>
+    <t>S1634</t>
+  </si>
+  <si>
+    <t>S1635</t>
+  </si>
+  <si>
+    <t>S1637</t>
+  </si>
+  <si>
+    <t>S1639</t>
+  </si>
+  <si>
+    <t>S1641</t>
+  </si>
+  <si>
+    <t>S1642</t>
+  </si>
+  <si>
+    <t>S1644</t>
+  </si>
+  <si>
+    <t>S1648</t>
+  </si>
+  <si>
+    <t>S1651</t>
+  </si>
+  <si>
+    <t>S1652</t>
+  </si>
+  <si>
+    <t>S1653</t>
+  </si>
+  <si>
+    <t>S1654</t>
+  </si>
+  <si>
+    <t>S1656</t>
+  </si>
+  <si>
+    <t>S1658</t>
+  </si>
+  <si>
+    <t>S1659</t>
+  </si>
+  <si>
+    <t>S1661</t>
+  </si>
+  <si>
+    <t>S1663</t>
+  </si>
+  <si>
+    <t>S1664</t>
+  </si>
+  <si>
+    <t>S1665</t>
+  </si>
+  <si>
+    <t>S1666</t>
+  </si>
+  <si>
+    <t>S1667</t>
+  </si>
+  <si>
+    <t>S1668</t>
+  </si>
+  <si>
+    <t>S1671</t>
+  </si>
+  <si>
+    <t>S1673</t>
+  </si>
+  <si>
+    <t>S1674</t>
+  </si>
+  <si>
+    <t>S1675</t>
+  </si>
+  <si>
+    <t>S1676</t>
+  </si>
+  <si>
+    <t>S1679</t>
+  </si>
+  <si>
+    <t>S1680</t>
+  </si>
+  <si>
+    <t>S1682</t>
+  </si>
+  <si>
+    <t>S1683</t>
+  </si>
+  <si>
+    <t>S1684</t>
+  </si>
+  <si>
+    <t>S1687</t>
+  </si>
+  <si>
+    <t>S1688</t>
+  </si>
+  <si>
+    <t>S1689</t>
+  </si>
+  <si>
+    <t>S1690</t>
+  </si>
+  <si>
+    <t>S1695</t>
+  </si>
+  <si>
+    <t>S1696</t>
+  </si>
+  <si>
+    <t>S1699</t>
+  </si>
+  <si>
+    <t>S1700</t>
+  </si>
+  <si>
+    <t>S1701</t>
+  </si>
+  <si>
+    <t>S1702</t>
+  </si>
+  <si>
+    <t>S1704</t>
+  </si>
+  <si>
+    <t>S1706</t>
+  </si>
+  <si>
+    <t>S1707</t>
+  </si>
+  <si>
+    <t>S1708</t>
+  </si>
+  <si>
+    <t>S1709</t>
+  </si>
+  <si>
+    <t>S1710</t>
+  </si>
+  <si>
+    <t>S1712</t>
+  </si>
+  <si>
+    <t>S1717</t>
+  </si>
+  <si>
+    <t>S1718</t>
+  </si>
+  <si>
+    <t>S1719</t>
+  </si>
+  <si>
+    <t>S1721</t>
+  </si>
+  <si>
+    <t>S1723</t>
+  </si>
+  <si>
+    <t>S1724</t>
+  </si>
+  <si>
+    <t>S1725</t>
+  </si>
+  <si>
+    <t>S1727</t>
+  </si>
+  <si>
+    <t>S1728</t>
+  </si>
+  <si>
+    <t>S1729</t>
+  </si>
+  <si>
+    <t>S1730</t>
+  </si>
+  <si>
+    <t>S1731</t>
+  </si>
+  <si>
+    <t>S1732</t>
+  </si>
+  <si>
+    <t>S1734</t>
+  </si>
+  <si>
+    <t>S1736</t>
+  </si>
+  <si>
+    <t>S1738</t>
+  </si>
+  <si>
+    <t>S1740</t>
   </si>
 </sst>
 </file>
@@ -682,11 +698,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NRM-CGI_3000142919_20200124" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NRM-CGI_3000142919_20200123" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NRM-CGI_3000142919_20200123" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NRM-CGI_3000142919_20200124" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,12 +748,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -767,12 +783,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -979,18 +995,18 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +1016,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1012,10 +1031,10 @@
         <v>3000142919</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1026,10 +1045,10 @@
         <v>3000142919</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1040,10 +1059,10 @@
         <v>3000142919</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1054,10 +1073,10 @@
         <v>3000142919</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1068,10 +1087,10 @@
         <v>3000142919</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1082,10 +1101,10 @@
         <v>3000142919</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1096,10 +1115,10 @@
         <v>3000142919</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1110,10 +1129,10 @@
         <v>3000142919</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1124,10 +1143,10 @@
         <v>3000142919</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1138,10 +1157,10 @@
         <v>3000142919</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1152,10 +1171,10 @@
         <v>3000142919</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1166,10 +1185,10 @@
         <v>3000142919</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1180,10 +1199,10 @@
         <v>3000142919</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1194,10 +1213,10 @@
         <v>3000142919</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1208,10 +1227,10 @@
         <v>3000142919</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1222,10 +1241,10 @@
         <v>3000142919</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1236,10 +1255,10 @@
         <v>3000142919</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1250,10 +1269,10 @@
         <v>3000142919</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1264,10 +1283,10 @@
         <v>3000142919</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1278,10 +1297,10 @@
         <v>3000142919</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1292,10 +1311,10 @@
         <v>3000142919</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1306,10 +1325,10 @@
         <v>3000142919</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1320,10 +1339,10 @@
         <v>3000142919</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1334,10 +1353,10 @@
         <v>3000142919</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1348,10 +1367,10 @@
         <v>3000142919</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1362,10 +1381,10 @@
         <v>3000142919</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1376,10 +1395,10 @@
         <v>3000142919</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1390,10 +1409,10 @@
         <v>3000142919</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1404,10 +1423,10 @@
         <v>3000142919</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1418,10 +1437,10 @@
         <v>3000142919</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1432,10 +1451,10 @@
         <v>3000142919</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1446,10 +1465,10 @@
         <v>3000142919</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1460,10 +1479,10 @@
         <v>3000142919</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1474,10 +1493,10 @@
         <v>3000142919</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1488,10 +1507,10 @@
         <v>3000142919</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1502,10 +1521,10 @@
         <v>3000142919</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1516,10 +1535,10 @@
         <v>3000142919</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1530,10 +1549,10 @@
         <v>3000142919</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1544,10 +1563,10 @@
         <v>3000142919</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1558,10 +1577,10 @@
         <v>3000142919</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1572,10 +1591,10 @@
         <v>3000142919</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1586,10 +1605,10 @@
         <v>3000142919</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1600,10 +1619,10 @@
         <v>3000142919</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1614,10 +1633,10 @@
         <v>3000142919</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1628,10 +1647,10 @@
         <v>3000142919</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1642,10 +1661,10 @@
         <v>3000142919</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1656,10 +1675,10 @@
         <v>3000142919</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1670,10 +1689,10 @@
         <v>3000142919</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1684,10 +1703,10 @@
         <v>3000142919</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1698,10 +1717,10 @@
         <v>3000142919</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1712,10 +1731,10 @@
         <v>3000142919</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1726,10 +1745,10 @@
         <v>3000142919</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1740,10 +1759,10 @@
         <v>3000142919</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1754,10 +1773,10 @@
         <v>3000142919</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1768,10 +1787,10 @@
         <v>3000142919</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1782,10 +1801,10 @@
         <v>3000142919</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1796,10 +1815,10 @@
         <v>3000142919</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1810,10 +1829,10 @@
         <v>3000142919</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1824,10 +1843,10 @@
         <v>3000142919</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1838,10 +1857,10 @@
         <v>3000142919</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1852,10 +1871,10 @@
         <v>3000142919</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1866,10 +1885,10 @@
         <v>3000142919</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1880,10 +1899,10 @@
         <v>3000142919</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1894,10 +1913,10 @@
         <v>3000142919</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1908,10 +1927,10 @@
         <v>3000142919</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1922,10 +1941,10 @@
         <v>3000142919</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1936,10 +1955,10 @@
         <v>3000142919</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1950,10 +1969,10 @@
         <v>3000142919</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1964,10 +1983,10 @@
         <v>3000142919</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1978,10 +1997,10 @@
         <v>3000142919</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1992,10 +2011,10 @@
         <v>3000142919</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2006,10 +2025,10 @@
         <v>3000142919</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2020,10 +2039,10 @@
         <v>3000142919</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2034,10 +2053,10 @@
         <v>3000142919</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2048,10 +2067,10 @@
         <v>3000142919</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2062,10 +2081,10 @@
         <v>3000142919</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2076,10 +2095,10 @@
         <v>3000142919</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2090,10 +2109,10 @@
         <v>3000142919</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2104,10 +2123,10 @@
         <v>3000142919</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2118,10 +2137,10 @@
         <v>3000142919</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2132,10 +2151,10 @@
         <v>3000142919</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2146,10 +2165,10 @@
         <v>3000142919</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2160,10 +2179,10 @@
         <v>3000142919</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2174,10 +2193,10 @@
         <v>3000142919</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2188,10 +2207,10 @@
         <v>3000142919</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2202,10 +2221,10 @@
         <v>3000142919</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2216,10 +2235,10 @@
         <v>3000142919</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2230,10 +2249,10 @@
         <v>3000142919</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2244,10 +2263,10 @@
         <v>3000142919</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2258,10 +2277,10 @@
         <v>3000142919</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2272,10 +2291,10 @@
         <v>3000142919</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2286,10 +2305,10 @@
         <v>3000142919</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2300,10 +2319,10 @@
         <v>3000142919</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2314,10 +2333,10 @@
         <v>3000142919</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2328,10 +2347,10 @@
         <v>3000142919</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2342,7 +2361,7 @@
         <v>3000142919</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2368,7 +2387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
